--- a/Data/SUELOPCA.xlsx
+++ b/Data/SUELOPCA.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Tesis_Puya\Tesis\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Tesis_Puya\Puya_CV_2024\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D09B5C-6D82-4DF5-9B5C-C3557C5DA4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5251EBAE-6A21-4C11-98B0-4F49F9DF99AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
-    <sheet name="Estadisticos" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Test" sheetId="4" r:id="rId3"/>
+    <sheet name="Estadisticos" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
-  <si>
-    <t>SFT5</t>
-  </si>
-  <si>
-    <t>SFT2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>pH</t>
   </si>
@@ -59,9 +55,6 @@
     <t>Arena (%)</t>
   </si>
   <si>
-    <t>Limo (%)</t>
-  </si>
-  <si>
     <t>K (mg/kg)</t>
   </si>
   <si>
@@ -110,9 +103,6 @@
     <t>(Ca+Mg)/K</t>
   </si>
   <si>
-    <t>Fuego</t>
-  </si>
-  <si>
     <t>Shapiro</t>
   </si>
   <si>
@@ -120,6 +110,81 @@
   </si>
   <si>
     <t>Gaussiano</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>No_fire</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>CICE</t>
+  </si>
+  <si>
+    <t>N.A</t>
+  </si>
+  <si>
+    <t>COOx</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>N_Total</t>
+  </si>
+  <si>
+    <t>d.a</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Silt</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Ac.Inter</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>2002_1</t>
+  </si>
+  <si>
+    <t>No_fire_1</t>
+  </si>
+  <si>
+    <t>1988_1</t>
+  </si>
+  <si>
+    <t>2002_2</t>
+  </si>
+  <si>
+    <t>No_fire_2</t>
+  </si>
+  <si>
+    <t>1988_2</t>
   </si>
 </sst>
 </file>
@@ -129,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -150,8 +215,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,15 +255,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +493,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -424,115 +505,97 @@
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4.8499999999999996</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4.3</v>
       </c>
       <c r="C2" s="1">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
       <c r="D2" s="1">
-        <v>8.08</v>
+        <v>12.4</v>
       </c>
       <c r="E2" s="1">
-        <v>44.5</v>
+        <v>48.3</v>
       </c>
       <c r="F2" s="1">
-        <v>12.3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>21.2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.02</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.63</v>
+        <v>11.1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.66200000000000003</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -543,312 +606,175 @@
       <c r="L2" s="1">
         <v>72</v>
       </c>
-      <c r="M2" s="1">
-        <v>116</v>
-      </c>
-      <c r="N2" s="1">
-        <v>15.6</v>
-      </c>
-      <c r="O2" s="1">
-        <v>25</v>
-      </c>
-      <c r="P2" s="1">
-        <v>15.4</v>
+      <c r="M2" s="6">
+        <v>170</v>
+      </c>
+      <c r="N2" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="O2" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="P2" s="6">
+        <v>28</v>
       </c>
       <c r="Q2" s="1">
-        <v>668</v>
-      </c>
-      <c r="R2" s="1">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="S2" s="1">
-        <v>9.15</v>
-      </c>
-      <c r="T2" s="1">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="V2" s="1">
-        <v>92</v>
-      </c>
-      <c r="W2" s="1">
-        <v>3.69</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0.379</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0.95299999999999996</v>
-      </c>
+        <v>1030</v>
+      </c>
+      <c r="R2" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="S2" s="6">
+        <v>6.15</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4.3</v>
+      <c r="A3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4.3499999999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="D3" s="1">
-        <v>12.4</v>
+        <v>9.31</v>
       </c>
       <c r="E3" s="1">
-        <v>48.3</v>
+        <v>45.6</v>
       </c>
       <c r="F3" s="1">
-        <v>11.1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.66200000000000003</v>
+        <v>12.3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>21.2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.65700000000000003</v>
       </c>
       <c r="J3" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L3" s="1">
         <v>72</v>
       </c>
-      <c r="M3" s="1">
-        <v>170</v>
-      </c>
-      <c r="N3" s="1">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="O3" s="1">
-        <v>35.6</v>
-      </c>
-      <c r="P3" s="1">
-        <v>28</v>
+      <c r="M3" s="6">
+        <v>99.5</v>
+      </c>
+      <c r="N3" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="O3" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="P3" s="6">
+        <v>17.3</v>
       </c>
       <c r="Q3" s="1">
-        <v>1030</v>
-      </c>
-      <c r="R3" s="1">
-        <v>15.2</v>
-      </c>
-      <c r="S3" s="1">
-        <v>6.15</v>
-      </c>
-      <c r="T3" s="1">
-        <v>2.36</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="V3" s="1">
-        <v>91.9</v>
-      </c>
-      <c r="W3" s="1">
-        <v>3.52</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>1.07</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="R3" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="S3" s="6">
+        <v>9.67</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4.3499999999999996</v>
+        <v>1988</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4.58</v>
       </c>
       <c r="C4" s="1">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="1">
-        <v>9.31</v>
+        <v>10.6</v>
       </c>
       <c r="E4" s="1">
-        <v>45.6</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1">
-        <v>12.3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>21.2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.02</v>
+        <v>12.5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.04</v>
       </c>
       <c r="I4" s="1">
-        <v>0.65700000000000003</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="J4" s="1">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1">
         <v>16</v>
-      </c>
-      <c r="K4" s="1">
-        <v>12</v>
       </c>
       <c r="L4" s="1">
         <v>72</v>
       </c>
-      <c r="M4" s="1">
-        <v>99.5</v>
-      </c>
-      <c r="N4" s="1">
-        <v>27.6</v>
-      </c>
-      <c r="O4" s="1">
-        <v>32.4</v>
-      </c>
-      <c r="P4" s="1">
-        <v>17.3</v>
+      <c r="M4" s="6">
+        <v>123</v>
+      </c>
+      <c r="N4" s="8">
+        <v>22.2</v>
+      </c>
+      <c r="O4" s="6">
+        <v>39.1</v>
+      </c>
+      <c r="P4" s="6">
+        <v>6.4</v>
       </c>
       <c r="Q4" s="1">
-        <v>772</v>
-      </c>
-      <c r="R4" s="1">
-        <v>11.8</v>
-      </c>
-      <c r="S4" s="1">
-        <v>9.67</v>
-      </c>
-      <c r="T4" s="1">
-        <v>2.86</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="V4" s="1">
-        <v>92.2</v>
-      </c>
-      <c r="W4" s="1">
-        <v>2.73</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1.48</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>1.59</v>
-      </c>
+        <v>886</v>
+      </c>
+      <c r="R4" s="6">
+        <v>14</v>
+      </c>
+      <c r="S4" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1988</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4.58</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>48</v>
-      </c>
-      <c r="F5" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>21.6</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.04</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="J5" s="1">
-        <v>12</v>
-      </c>
-      <c r="K5" s="1">
-        <v>16</v>
-      </c>
-      <c r="L5" s="1">
-        <v>72</v>
-      </c>
-      <c r="M5" s="1">
-        <v>123</v>
-      </c>
-      <c r="N5" s="4">
-        <v>22.2</v>
-      </c>
-      <c r="O5" s="1">
-        <v>39.1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>886</v>
-      </c>
-      <c r="R5" s="1">
-        <v>14</v>
-      </c>
-      <c r="S5" s="1">
-        <v>4.71</v>
-      </c>
-      <c r="T5" s="1">
-        <v>3.04</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="V5" s="1">
-        <v>92.8</v>
-      </c>
-      <c r="W5" s="1">
-        <v>2.96</v>
-      </c>
-      <c r="X5" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>1.03</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>1.38</v>
-      </c>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="P6" s="1"/>
@@ -874,10 +800,10 @@
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="F15" s="3"/>
+    </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2"/>
     <row r="17" x14ac:dyDescent="0.2"/>
     <row r="18" x14ac:dyDescent="0.2"/>
@@ -891,13 +817,670 @@
     <row r="26" x14ac:dyDescent="0.2"/>
     <row r="27" x14ac:dyDescent="0.2"/>
     <row r="28" x14ac:dyDescent="0.2"/>
-    <row r="29" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D95274B-BE3B-4BFA-B367-E58829F56007}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="9">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="C2" s="6">
+        <v>21.2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9.31</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1.02</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="I2" s="9">
+        <v>99.5</v>
+      </c>
+      <c r="J2" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="K2" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="L2" s="9">
+        <v>17.3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="I3" s="9">
+        <v>170</v>
+      </c>
+      <c r="J3" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="K3" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="L3" s="9">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="9">
+        <v>4.58</v>
+      </c>
+      <c r="C4" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1.04</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="I4" s="9">
+        <v>123</v>
+      </c>
+      <c r="J4" s="8">
+        <v>22.2</v>
+      </c>
+      <c r="K4" s="6">
+        <v>39.1</v>
+      </c>
+      <c r="L4" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="C5" s="6">
+        <v>21.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9.31</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1.02</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="I5" s="9">
+        <v>99.5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="K5" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="L5" s="9">
+        <v>17.3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="I6" s="9">
+        <v>170</v>
+      </c>
+      <c r="J6" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="K6" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="L6" s="9">
+        <v>28</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="9">
+        <v>4.58</v>
+      </c>
+      <c r="C7" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1.04</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="I7" s="9">
+        <v>123</v>
+      </c>
+      <c r="J7" s="8">
+        <v>22.2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>39.1</v>
+      </c>
+      <c r="L7" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2DF2E7-1EE2-409A-83E1-B65A8082A436}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="9">
+        <v>4.58</v>
+      </c>
+      <c r="C2" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1.04</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="I2" s="9">
+        <v>123</v>
+      </c>
+      <c r="J2" s="8">
+        <v>22.2</v>
+      </c>
+      <c r="K2" s="6">
+        <v>39.1</v>
+      </c>
+      <c r="L2" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="9">
+        <v>4.58</v>
+      </c>
+      <c r="C3" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1.04</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="I3" s="9">
+        <v>123</v>
+      </c>
+      <c r="J3" s="8">
+        <v>22.2</v>
+      </c>
+      <c r="K3" s="6">
+        <v>39.1</v>
+      </c>
+      <c r="L3" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="9">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="C4" s="6">
+        <v>21.2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9.31</v>
+      </c>
+      <c r="F4" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1.02</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="I4" s="9">
+        <v>99.5</v>
+      </c>
+      <c r="J4" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="K4" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="L4" s="9">
+        <v>17.3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="C5" s="6">
+        <v>21.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9.31</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1.02</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="I5" s="9">
+        <v>99.5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="K5" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="L5" s="9">
+        <v>17.3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="I6" s="9">
+        <v>170</v>
+      </c>
+      <c r="J6" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="K6" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="L6" s="9">
+        <v>28</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96E6BBA-16A4-477F-ADC2-919866A6041F}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -909,173 +1492,173 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="5">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4">
         <v>0.49869999999999998</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.12970000000000001</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0.95389999999999997</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>0.35389999999999999</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <v>4.0890000000000003E-2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>5.5309999999999998E-2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>6.9580000000000003E-2</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0.16059999999999999</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>0.16120000000000001</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>0.16120000000000001</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>0.42</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>0.99450000000000005</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>0.80840000000000001</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>0.87070000000000003</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>0.95709999999999995</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>0.25169999999999998</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>0.41949999999999998</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <v>0.80500000000000005</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="4">
         <v>0.18820000000000001</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <v>0.30359999999999998</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>0.51780000000000004</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="4">
         <v>0.32279999999999998</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="4">
         <v>0.50860000000000005</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="4">
         <v>0.87270000000000003</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="4">
         <v>6.5070000000000003E-2</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="4">
         <v>0.69210000000000005</v>
       </c>
-      <c r="AC2" s="7" t="s">
-        <v>32</v>
+      <c r="AC2" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
